--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Stuart Christopher John Broad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2511</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2512</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/09/2006</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>10/09/2006</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2515</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>21/08/2007</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2722</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2724</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2727</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2728</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2729</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1270,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/09/2007</t>
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2730</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1317,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>08/09/2007</t>
@@ -1264,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2731</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2733</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2735</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1420,7 +1480,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2737</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1520,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>10/10/2007</t>
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2739</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2741</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2786</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2789</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1723,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>15/02/2008</t>
@@ -1672,7 +1730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1770,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>20/02/2008</t>
@@ -1720,7 +1777,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1772,7 +1829,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2796</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1812,7 +1869,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>15/06/2008</t>
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2068,7 +2124,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>18/08/2008</t>
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2858</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2171,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2863</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2164,7 +2218,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/08/2008</t>
@@ -2172,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2870</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2874</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2264,7 +2317,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>31/08/2008</t>
@@ -2272,7 +2324,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2876</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2312,7 +2364,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>03/09/2008</t>
@@ -2320,7 +2371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2878</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2372,7 +2423,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2896</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2424,7 +2475,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2476,7 +2527,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2528,7 +2579,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2568,7 +2619,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>26/11/2008</t>
@@ -2576,7 +2626,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2905</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2628,7 +2678,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2680,7 +2730,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2732,7 +2782,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2772,7 +2822,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>29/03/2009</t>
@@ -2780,7 +2829,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2820,7 +2869,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>03/04/2009</t>
@@ -2828,7 +2876,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2916,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>24/05/2009</t>
@@ -2876,7 +2923,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2928,7 +2975,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2980,7 +3027,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3032,7 +3079,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3084,7 +3131,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3124,7 +3171,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>25/09/2009</t>
@@ -3132,7 +3178,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3184,7 +3230,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3236,7 +3282,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3288,7 +3334,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3328,7 +3374,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>29/11/2009</t>
@@ -3336,7 +3381,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3376,7 +3421,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>28/02/2010</t>
@@ -3384,7 +3428,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3424,7 +3468,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>02/03/2010</t>
@@ -3432,7 +3475,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3472,7 +3515,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>19/06/2010</t>
@@ -3480,7 +3522,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3520,7 +3562,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -3528,7 +3569,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3568,7 +3609,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>24/06/2010</t>
@@ -3576,7 +3616,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3628,7 +3668,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3680,7 +3720,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3732,7 +3772,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3772,7 +3812,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>08/07/2010</t>
@@ -3780,7 +3819,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3832,7 +3871,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3872,7 +3911,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>12/07/2010</t>
@@ -3880,7 +3918,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3920,7 +3958,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>10/09/2010</t>
@@ -3928,7 +3965,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3968,7 +4005,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/09/2010</t>
@@ -3976,7 +4012,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4028,7 +4064,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4080,7 +4116,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4120,7 +4156,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>22/09/2010</t>
@@ -4128,7 +4163,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4168,7 +4203,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>22/02/2011</t>
@@ -4176,7 +4210,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3239</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4216,7 +4250,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -4224,7 +4257,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4276,7 +4309,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4328,7 +4361,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4380,7 +4413,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4432,7 +4465,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4472,7 +4505,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -4480,7 +4512,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4520,7 +4552,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -4528,7 +4559,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4568,7 +4599,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -4576,7 +4606,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4628,7 +4658,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4668,7 +4698,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>11/09/2011</t>
@@ -4676,7 +4705,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4728,7 +4757,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4768,7 +4797,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>15/02/2012</t>
@@ -4776,7 +4804,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4816,7 +4844,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>18/02/2012</t>
@@ -4824,7 +4851,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4876,7 +4903,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4916,7 +4943,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -4924,7 +4950,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4964,7 +4990,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>29/06/2012</t>
@@ -4972,7 +4997,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5012,7 +5037,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>01/07/2012</t>
@@ -5020,7 +5044,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5060,7 +5084,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -5068,7 +5091,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5108,7 +5131,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>10/07/2012</t>
@@ -5116,7 +5138,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5168,7 +5190,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5208,7 +5230,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -5216,7 +5237,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5256,7 +5277,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>23/02/2013</t>
@@ -5264,7 +5284,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5304,7 +5324,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>05/06/2013</t>
@@ -5312,7 +5331,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5352,7 +5371,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>08/06/2013</t>
@@ -5360,7 +5378,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5412,7 +5430,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5464,7 +5482,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5504,7 +5522,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -5512,7 +5529,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5564,7 +5581,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5616,7 +5633,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5668,7 +5685,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5720,7 +5737,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5760,7 +5777,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -5768,7 +5784,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5820,7 +5836,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5860,7 +5876,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -5868,7 +5883,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5920,7 +5935,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5960,7 +5975,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -5968,7 +5982,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6020,7 +6034,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6072,7 +6086,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6124,7 +6138,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6176,7 +6190,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6228,7 +6242,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6280,7 +6294,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6320,7 +6334,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -6328,7 +6341,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6380,7 +6393,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6420,7 +6433,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -6428,7 +6440,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6480,7 +6492,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6532,7 +6544,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6571,7 +6583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6593,7 +6605,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6630,7 +6642,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2511</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6667,7 +6679,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2512</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6704,7 +6716,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6741,7 +6753,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6778,7 +6790,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2515</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6815,7 +6827,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6852,7 +6864,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6889,7 +6901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6926,7 +6938,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6963,7 +6975,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2722</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7000,7 +7012,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2724</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7037,7 +7049,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2727</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7074,7 +7086,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2728</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7111,7 +7123,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2729</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7148,7 +7160,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2730</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7185,7 +7197,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2731</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7222,7 +7234,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2733</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7259,7 +7271,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2735</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7296,7 +7308,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2737</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7333,7 +7345,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2739</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7370,7 +7382,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2741</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7407,7 +7419,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2786</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7444,7 +7456,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2789</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7481,7 +7493,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7518,7 +7530,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7555,7 +7567,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2796</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7592,7 +7604,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7629,7 +7641,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7666,7 +7678,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7703,7 +7715,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7740,7 +7752,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7777,7 +7789,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2858</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7814,7 +7826,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2863</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7851,7 +7863,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2870</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7888,7 +7900,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2874</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7925,7 +7937,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2876</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7962,7 +7974,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2878</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7999,7 +8011,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2896</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8036,7 +8048,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8073,7 +8085,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8110,7 +8122,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8147,7 +8159,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2905</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8184,7 +8196,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8221,7 +8233,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8258,7 +8270,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8295,7 +8307,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8332,7 +8344,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8369,7 +8381,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8406,7 +8418,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8443,7 +8455,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8480,7 +8492,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8517,7 +8529,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8554,7 +8566,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8591,7 +8603,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8628,7 +8640,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8665,7 +8677,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8702,7 +8714,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8739,7 +8751,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8776,7 +8788,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8813,7 +8825,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8850,7 +8862,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8887,7 +8899,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8924,7 +8936,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8961,7 +8973,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8998,7 +9010,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9035,7 +9047,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9072,7 +9084,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9109,7 +9121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9146,7 +9158,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9183,7 +9195,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9220,7 +9232,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9257,7 +9269,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9294,7 +9306,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9331,7 +9343,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3239</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9368,7 +9380,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9405,7 +9417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9442,7 +9454,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9479,7 +9491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9516,7 +9528,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9553,7 +9565,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9590,7 +9602,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9627,7 +9639,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9664,7 +9676,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9701,7 +9713,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9738,7 +9750,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9775,7 +9787,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9812,7 +9824,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9849,7 +9861,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9886,7 +9898,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9923,7 +9935,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9960,7 +9972,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9997,7 +10009,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10034,7 +10046,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10071,7 +10083,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10108,7 +10120,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10145,7 +10157,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10182,7 +10194,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10219,7 +10231,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10256,7 +10268,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10293,7 +10305,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10330,7 +10342,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10367,7 +10379,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10404,7 +10416,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10441,7 +10453,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10478,7 +10490,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10515,7 +10527,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10552,7 +10564,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10589,7 +10601,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10626,7 +10638,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10663,7 +10675,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10700,7 +10712,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10737,7 +10749,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -10774,7 +10786,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -10811,7 +10823,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -10848,7 +10860,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -10885,7 +10897,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -10922,7 +10934,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -10959,7 +10971,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -10996,7 +11008,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11033,7 +11045,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11070,7 +11082,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -11096,6 +11108,519 @@
       <c r="G122" t="inlineStr">
         <is>
           <t>0/34</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17.18%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11168,15 +11169,469 @@
           <t>3519</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17.18%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11184,29 +11639,12 @@
           <t>3602</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11216,13 +11654,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11230,27 +11661,14 @@
           <t>3608</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11260,17 +11678,12 @@
           <t>3622</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11278,27 +11691,14 @@
           <t>3625</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17.18%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11308,15 +11708,14 @@
           <t>3629</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11326,25 +11725,12 @@
           <t>3727</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11352,17 +11738,12 @@
           <t>3735</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11372,13 +11753,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11386,27 +11760,14 @@
           <t>3744</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11418,13 +11779,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11432,23 +11786,14 @@
           <t>3749</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11458,29 +11803,12 @@
           <t>3756</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11490,13 +11818,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11504,17 +11825,12 @@
           <t>3769</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11522,27 +11838,14 @@
           <t>3780</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11552,15 +11855,14 @@
           <t>3785</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11570,27 +11872,14 @@
           <t>3890</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11600,29 +11889,12 @@
           <t>3891</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.51%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2377,7 +2376,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -11169,6 +11168,10 @@
           <t>3519</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11211,6 +11214,10 @@
           <t>3606</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11256,6 +11263,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11301,6 +11311,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11326,6 +11339,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11341,6 +11355,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11353,6 +11370,10 @@
           <t>3738</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11395,6 +11416,10 @@
           <t>3746</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11420,6 +11445,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11462,6 +11488,10 @@
           <t>3761</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11477,6 +11507,9 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11522,6 +11555,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11587,314 +11623,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3519</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3602</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3606</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3608</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3727</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3735</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3744</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3746</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3749</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3769</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3890</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3891</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3434.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/09/2006</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>10/09/2006</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>21/08/2007</t>
@@ -1270,6 +1272,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/09/2007</t>
@@ -1317,6 +1320,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>08/09/2007</t>
@@ -1520,6 +1524,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>10/10/2007</t>
@@ -1723,6 +1728,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>15/02/2008</t>
@@ -1770,6 +1776,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>20/02/2008</t>
@@ -1869,6 +1876,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>15/06/2008</t>
@@ -2124,6 +2132,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>18/08/2008</t>
@@ -2171,6 +2180,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -2218,6 +2228,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/08/2008</t>
@@ -2317,6 +2328,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>31/08/2008</t>
@@ -2364,6 +2376,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>03/09/2008</t>
@@ -2619,6 +2632,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>26/11/2008</t>
@@ -2822,6 +2836,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>29/03/2009</t>
@@ -2869,6 +2884,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>03/04/2009</t>
@@ -2916,6 +2932,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>24/05/2009</t>
@@ -3171,6 +3188,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>25/09/2009</t>
@@ -3374,6 +3392,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>29/11/2009</t>
@@ -3421,6 +3440,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>28/02/2010</t>
@@ -3468,6 +3488,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>02/03/2010</t>
@@ -3515,6 +3536,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>19/06/2010</t>
@@ -3562,6 +3584,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -3609,6 +3632,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>24/06/2010</t>
@@ -3812,6 +3836,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>08/07/2010</t>
@@ -3911,6 +3936,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>12/07/2010</t>
@@ -3958,6 +3984,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>10/09/2010</t>
@@ -4005,6 +4032,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/09/2010</t>
@@ -4156,6 +4184,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>22/09/2010</t>
@@ -4203,6 +4232,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>22/02/2011</t>
@@ -4250,6 +4280,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -4505,6 +4536,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -4552,6 +4584,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -4599,6 +4632,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -4698,6 +4732,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>11/09/2011</t>
@@ -4797,6 +4832,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>15/02/2012</t>
@@ -4844,6 +4880,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>18/02/2012</t>
@@ -4943,6 +4980,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -4990,6 +5028,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>29/06/2012</t>
@@ -5037,6 +5076,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>01/07/2012</t>
@@ -5084,6 +5124,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -5131,6 +5172,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>10/07/2012</t>
@@ -5230,6 +5272,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -5277,6 +5320,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>23/02/2013</t>
@@ -5324,6 +5368,7 @@
           <t>97</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>05/06/2013</t>
@@ -5371,6 +5416,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>08/06/2013</t>
@@ -5522,6 +5568,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -5777,6 +5824,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -5876,6 +5924,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -5975,6 +6024,7 @@
           <t>110</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -6334,6 +6384,7 @@
           <t>117</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -6433,6 +6484,7 @@
           <t>119</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -11114,517 +11166,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3519</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3602</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3606</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3608</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17.18%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3727</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3735</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3744</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3746</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3749</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3769</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3890</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3891</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.51%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>